--- a/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Runes - 5851932.xlsx
+++ b/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Runes - 5851932.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616EBBB2-74DE-4603-9A58-E4D79D28E383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B0C49-8902-4F5A-B9F1-BBC9941A0E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20970" yWindow="1230" windowWidth="27825" windowHeight="19005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>WEB 2.0 BLOG</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>HasBlog</t>
+  </si>
+  <si>
+    <t>Suspended</t>
   </si>
 </sst>
 </file>
@@ -441,6 +444,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,9 +457,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:I33"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,43 +813,43 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -862,20 +865,23 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -892,7 +898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -909,7 +915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -926,7 +932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -943,7 +949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -960,7 +966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -977,7 +983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1027,8 +1033,11 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1235,40 +1244,40 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1286,16 +1295,16 @@
       <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="14" t="s">
         <v>87</v>
       </c>
     </row>

--- a/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Runes - 5851932.xlsx
+++ b/private/concepts/seo/static/lolvvv/lolvvv - Web20 - {championName} Runes - 5851932.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B0C49-8902-4F5A-B9F1-BBC9941A0E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B959B-53DB-478F-AFB0-6F74B6638F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24300" yWindow="2175" windowWidth="27285" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
   <si>
     <t>WEB 2.0 BLOG</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>https://www.shutterfly.com/</t>
-  </si>
-  <si>
-    <t>http:www.jimdo.com/</t>
   </si>
   <si>
     <t>https://us.webnode.com/</t>
@@ -288,13 +285,121 @@
   </si>
   <si>
     <t>Suspended</t>
+  </si>
+  <si>
+    <t>http://www.jimdo.com/</t>
+  </si>
+  <si>
+    <t>Blog Article #1</t>
+  </si>
+  <si>
+    <t>Blog Article #2</t>
+  </si>
+  <si>
+    <t>https://apheliosrunes.wordpress.com/2021/02/03/rune-comparison-guardian-vs-aery-when-and-why-to-choose-each/</t>
+  </si>
+  <si>
+    <t>Keyword 1</t>
+  </si>
+  <si>
+    <t>Keyword 2</t>
+  </si>
+  <si>
+    <t>Janna Runes</t>
+  </si>
+  <si>
+    <t>http://camille-runes.jigsy.com/entries/general/league-of-legends-rune-guide-for-different-roles-and-playstyles</t>
+  </si>
+  <si>
+    <t>Camille Runes</t>
+  </si>
+  <si>
+    <t>https://melissatookes.wixsite.com/samira-runes/post/how-to-climb-in-low-elo-as-a-top-laner</t>
+  </si>
+  <si>
+    <t>Vladimir Runes</t>
+  </si>
+  <si>
+    <t>https://rell-runes.my-free.website/league-of-legends/post/254148/viego-guide-for-league-of-legends-best-runes-build-tips-and-tricks</t>
+  </si>
+  <si>
+    <t>Viego Runes</t>
+  </si>
+  <si>
+    <t>http://rell-runes.bravesites.com/entries/general/runes-reforged-a-brave-new-frontier</t>
+  </si>
+  <si>
+    <t>Rell Runes</t>
+  </si>
+  <si>
+    <t>https://samirarunes.doodlekit.com/blog/entry/13268269/league-of-legends-rune-guide-for-different-roles-and-playstyles</t>
+  </si>
+  <si>
+    <t>Jhin Runes</t>
+  </si>
+  <si>
+    <t>https://taliyah-runes-78.webselfsite.net/blog/2021/03/02/league-of-legends-preseason-2021-will-change-the-game-from-the-ground-up</t>
+  </si>
+  <si>
+    <t>Taliyah Runes</t>
+  </si>
+  <si>
+    <t>https://viego-runes.over-blog.com/2021/02/how-to-climb-in-low-elo-as-an-adc.html</t>
+  </si>
+  <si>
+    <t>Draven Runes</t>
+  </si>
+  <si>
+    <t>https://taliyah-runes.sitey.me/league-of-legends/post/253888/league-of-legends-rune-manual-for-different-roles-and-playstyles</t>
+  </si>
+  <si>
+    <t>Ryze Runes</t>
+  </si>
+  <si>
+    <t>https://sett-runes.mystrikingly.com/blog/dev-update-on-runes-reforged</t>
+  </si>
+  <si>
+    <t>Sett Runes</t>
+  </si>
+  <si>
+    <t>Ezreal Runes</t>
+  </si>
+  <si>
+    <t>http://viego-runes.website2.me/the-blog/the-top-laner-s-guide-to-climbing-low-elo</t>
+  </si>
+  <si>
+    <t>Akali Runes</t>
+  </si>
+  <si>
+    <t>https://601aff550d219.site123.me/league-of-legends/how-to-play-sona-lux-bot-lane-runes-tips-and-tricks</t>
+  </si>
+  <si>
+    <t>Sona Lux Runes</t>
+  </si>
+  <si>
+    <t>https://shacorunes.shutterfly.com/22</t>
+  </si>
+  <si>
+    <t>Shaco Runes</t>
+  </si>
+  <si>
+    <t>https://ezreal-runes.webnode.com/l/rune-comparison-guardian-vs-aery-when-and-why-to-choose-each/</t>
+  </si>
+  <si>
+    <t>Lulu Runes</t>
+  </si>
+  <si>
+    <t>https://aphelios-runes.jimdofree.com/2021/02/03/how-to-climb-in-low-elo-as-a-jungler/</t>
+  </si>
+  <si>
+    <t>Zac Runes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,8 +477,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +524,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +550,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,6 +587,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,43 +974,43 @@
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -866,22 +1027,34 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -889,16 +1062,16 @@
         <v>88</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -906,16 +1079,28 @@
         <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -923,16 +1108,28 @@
         <v>65</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -940,16 +1137,28 @@
         <v>92</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -957,16 +1166,28 @@
         <v>63</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -974,33 +1195,48 @@
         <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="19">
         <v>83</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1008,36 +1244,48 @@
         <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="24">
         <v>93</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1045,16 +1293,28 @@
         <v>65</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1062,16 +1322,28 @@
         <v>90</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1079,16 +1351,28 @@
         <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1096,16 +1380,16 @@
         <v>71</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1113,16 +1397,28 @@
         <v>87</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
@@ -1130,16 +1426,28 @@
         <v>88</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -1147,16 +1455,28 @@
         <v>68</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1164,16 +1484,28 @@
         <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -1181,103 +1513,139 @@
         <v>83</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
         <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B25" s="6">
         <v>74</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="2"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="2"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1296,16 +1664,16 @@
         <v>5</v>
       </c>
       <c r="F33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="I33" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,13 +1684,13 @@
         <v>88</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,13 +1701,13 @@
         <v>92</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1350,13 +1718,13 @@
         <v>65</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1367,13 +1735,13 @@
         <v>92</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,13 +1752,13 @@
         <v>63</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1401,13 +1769,13 @@
         <v>76</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1418,13 +1786,13 @@
         <v>83</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1435,13 +1803,13 @@
         <v>86</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1452,13 +1820,13 @@
         <v>93</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1469,13 +1837,13 @@
         <v>65</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1486,13 +1854,13 @@
         <v>90</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1503,13 +1871,13 @@
         <v>53</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1520,13 +1888,13 @@
         <v>71</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1537,13 +1905,13 @@
         <v>87</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,13 +1922,13 @@
         <v>88</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,13 +1939,13 @@
         <v>68</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,13 +1956,13 @@
         <v>53</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,47 +1973,47 @@
         <v>83</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="3">
         <v>50</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>24</v>
+      <c r="A53" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B53" s="6">
         <v>74</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1659,8 +2027,24 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1" xr:uid="{3DBF5DB7-E347-4E73-81C4-EDBC5FCA224B}"/>
+    <hyperlink ref="A53" r:id="rId2" xr:uid="{6FAE1BC2-F4B7-4966-855B-A17C92BFA880}"/>
+    <hyperlink ref="K7" r:id="rId3" xr:uid="{8828EC58-36C6-47CD-A90D-3A795800FB5D}"/>
+    <hyperlink ref="K8" r:id="rId4" xr:uid="{C19F5390-278B-46C2-8E83-963E86C0F810}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{DBC7A568-0308-42AE-B658-BD85D0FCDA2F}"/>
+    <hyperlink ref="K11" r:id="rId6" xr:uid="{E7DFB84F-611F-4C70-81F8-7618EC2EF475}"/>
+    <hyperlink ref="K13" r:id="rId7" xr:uid="{F3CE293E-EAD6-4FAC-A2B2-F621EE468DB2}"/>
+    <hyperlink ref="K15" r:id="rId8" xr:uid="{60EA29DD-9B9C-4666-A82B-DFE0A872D38A}"/>
+    <hyperlink ref="K19" r:id="rId9" xr:uid="{028261BB-5158-46E2-A615-8E8F905CFDBD}"/>
+    <hyperlink ref="K20" r:id="rId10" xr:uid="{478976FB-5723-4E54-B91E-9FA6D22CF50B}"/>
+    <hyperlink ref="K21" r:id="rId11" xr:uid="{6F826861-F2CC-4D54-B2C5-A122C4773482}"/>
+    <hyperlink ref="K22" r:id="rId12" xr:uid="{0BBF4AF4-718F-4144-9EA8-BFAC09D24C96}"/>
+    <hyperlink ref="K23" r:id="rId13" xr:uid="{D42FA024-3520-4F82-BEC0-4F2FE21D8FAD}"/>
+    <hyperlink ref="K24" r:id="rId14" xr:uid="{7FF941C3-14CD-47BC-87A6-2D9E565E2DBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
